--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoht\OneDrive\Documents\Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A62F5F31-7891-44DD-9AE4-5027F380D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6E89-7BFB-4878-9271-7966975F4452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{187FBB1B-B149-4263-A2DA-8A39DACAADBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Agency Name</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Agency Comments</t>
+  </si>
+  <si>
+    <t>KO2 Recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They don't bother replying and ghost you afterwards. </t>
   </si>
 </sst>
 </file>
@@ -416,13 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75009BDA-8F19-45C7-ADE3-770B8FA05AD9}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -433,6 +442,17 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
